--- a/out/CBP/Øko_konventionelt køb i kg Nordsjælands hospitaler februar 2024.xlsx
+++ b/out/CBP/Øko_konventionelt køb i kg Nordsjælands hospitaler februar 2024.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Sygehus lillebælt   Periode 01-02-2024 - 29-02-2024</t>
   </si>
@@ -173,30 +173,21 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
+    <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
+  </si>
+  <si>
     <t>6% filler,31% containsProductNr,62% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,17% QuantityHeader,</t>
   </si>
   <si>
-    <t>2% filler,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% TotalMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,17% containsTotalMass,17% containsSingleMass,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% TotalMassHeader,</t>
-  </si>
-  <si>
-    <t>2% filler,27% containsSingleMass,13% containsProductNr,27% containsAmount,27% SingleMassHeader,</t>
-  </si>
-  <si>
-    <t>3% filler,38% containsProduct,19% containsProductNr,38% containsAmount,</t>
-  </si>
-  <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
@@ -206,10 +197,10 @@
     <t xml:space="preserve">VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
   <si>
+    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, </t>
+  </si>
+  <si>
     <t xml:space="preserve">VARENR, ANTAL, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
@@ -251,7 +242,7 @@
       <name val="Segoe UI"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +317,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF093666"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF093666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0F08A6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -348,13 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -370,50 +372,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF748BC7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF748BC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA58BA3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA58BA3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF947CC6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF093666"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF093666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF747D9B"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -437,6 +395,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006400"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -482,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -536,19 +506,16 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="14" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="16" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="16" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
-    <xf numFmtId="82" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
+    <xf numFmtId="82" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="20" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="22" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
@@ -559,26 +526,29 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="26" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="26" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="27" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="28" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="82" applyNumberFormat="1" fontId="4" applyFont="1" fillId="29" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="29" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="29" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="28" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="32" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="33" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="34" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="82" applyNumberFormat="1" fontId="4" applyFont="1" fillId="30" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,7 +1461,7 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3"/>
@@ -1501,7 +1471,7 @@
       <c r="H5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="27">
         <v>565.65</v>
       </c>
       <c r="J5" s="18">
@@ -1524,7 +1494,7 @@
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="3"/>
@@ -1534,7 +1504,7 @@
       <c r="H6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="27">
         <v>529.5</v>
       </c>
       <c r="J6" s="18">
@@ -1557,7 +1527,7 @@
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="3"/>
@@ -1567,7 +1537,7 @@
       <c r="H7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="27">
         <v>419.28</v>
       </c>
       <c r="J7" s="18">
@@ -1590,7 +1560,7 @@
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3"/>
@@ -1600,13 +1570,13 @@
       <c r="H8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="27">
         <v>1037.2</v>
       </c>
       <c r="J8" s="18">
         <v>8</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1623,7 +1593,7 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3"/>
@@ -1633,13 +1603,13 @@
       <c r="H9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="27">
         <v>441.25</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="27">
         <v>12.5</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1656,7 +1626,7 @@
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="3"/>
@@ -1666,13 +1636,13 @@
       <c r="H10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="27">
         <v>1348.13</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="27">
         <v>37.5</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1689,7 +1659,7 @@
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="3"/>
@@ -1705,7 +1675,7 @@
       <c r="J11" s="18">
         <v>25</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1722,7 +1692,7 @@
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3"/>
@@ -1732,13 +1702,13 @@
       <c r="H12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="27">
         <v>358.5</v>
       </c>
       <c r="J12" s="18">
         <v>30</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1771,9 +1741,6 @@
       <c r="J13" s="18">
         <v>22</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="14" ht="19.25">
       <c r="A14" s="18">
@@ -1788,7 +1755,7 @@
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="3"/>
@@ -1798,14 +1765,11 @@
       <c r="H14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="27">
         <v>1626.75</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="27">
         <v>37.5</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" ht="19.25">
@@ -1821,7 +1785,7 @@
       <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="31" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="3"/>
@@ -1837,9 +1801,6 @@
       <c r="J15" s="18">
         <v>50</v>
       </c>
-      <c r="K15" s="39" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="16" ht="19.25">
       <c r="A16" s="18">
@@ -1884,7 +1845,7 @@
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="3"/>
@@ -1894,7 +1855,7 @@
       <c r="H17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="27">
         <v>1588.5</v>
       </c>
       <c r="J17" s="18">
@@ -1914,7 +1875,7 @@
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="3"/>
@@ -1924,7 +1885,7 @@
       <c r="H18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="27">
         <v>863.75</v>
       </c>
       <c r="J18" s="18">
@@ -1944,7 +1905,7 @@
       <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="3"/>
@@ -1954,7 +1915,7 @@
       <c r="H19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="27">
         <v>882.5</v>
       </c>
       <c r="J19" s="18">
@@ -1974,7 +1935,7 @@
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="3"/>
@@ -1984,10 +1945,10 @@
       <c r="H20" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="27">
         <v>449.38</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="27">
         <v>12.5</v>
       </c>
     </row>
@@ -2004,7 +1965,7 @@
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="3"/>
@@ -2064,7 +2025,7 @@
       <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="31" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="3"/>
@@ -2074,10 +2035,10 @@
       <c r="H23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="27">
         <v>468.75</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="27">
         <v>12.5</v>
       </c>
     </row>
@@ -2174,660 +2135,660 @@
     </row>
     <row r="2" ht="4" customHeight="1"/>
     <row r="3" ht="19.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="I3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="42" t="s">
+      <c r="J3" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="42" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="4" ht="19.25">
-      <c r="A4" s="4">
+      <c r="A4" s="36">
         <v>1202688</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="39" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="36">
         <v>0</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="37"/>
     </row>
     <row r="5" ht="19.25">
-      <c r="A5" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="36">
         <v>565.65</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="40">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="19.3">
-      <c r="A6" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="39" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="36">
         <v>529.5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="19.25">
-      <c r="A7" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="39" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="36">
         <v>419.28</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="19.25">
-      <c r="A8" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="36">
         <v>1037.2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="40">
         <v>8</v>
       </c>
     </row>
     <row r="9" ht="19.25">
-      <c r="A9" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="36">
         <v>441.25</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="40">
         <v>12.5</v>
       </c>
     </row>
     <row r="10" ht="19.25">
-      <c r="A10" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="39" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="36">
         <v>1348.13</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="40">
         <v>37.5</v>
       </c>
     </row>
     <row r="11" ht="19.25">
-      <c r="A11" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="36">
         <v>835</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="12" ht="19.3">
-      <c r="A12" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="36">
         <v>358.5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="13" ht="19.25">
-      <c r="A13" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="36">
         <v>85</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="40">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="19.25">
-      <c r="A14" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="36">
         <v>1626.75</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="40">
         <v>37.5</v>
       </c>
     </row>
     <row r="15" ht="19.25">
-      <c r="A15" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="39" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="36">
         <v>2245</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="16" ht="19.25">
-      <c r="A16" s="4">
-        <v>1203903</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="36">
+        <v>1203903</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="36">
         <v>111</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="19.25">
-      <c r="A17" s="4">
+      <c r="A17" s="36">
         <v>1205777</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="39" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="36">
         <v>1588.5</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="40">
         <v>75</v>
       </c>
     </row>
     <row r="18" ht="19.3">
-      <c r="A18" s="4">
+      <c r="A18" s="36">
         <v>1205777</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="39" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="36">
         <v>863.75</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="19" ht="19.25">
-      <c r="A19" s="4">
+      <c r="A19" s="36">
         <v>1205777</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H19" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="36">
         <v>882.5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="40">
         <v>25</v>
       </c>
     </row>
     <row r="20" ht="19.25">
-      <c r="A20" s="4">
+      <c r="A20" s="36">
         <v>1205777</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="39" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="36">
         <v>449.38</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="40">
         <v>12.5</v>
       </c>
     </row>
     <row r="21" ht="19.25">
-      <c r="A21" s="4">
+      <c r="A21" s="36">
         <v>1205777</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="36">
         <v>239</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="22" ht="19.25">
-      <c r="A22" s="4">
+      <c r="A22" s="36">
         <v>1205777</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="36">
         <v>85</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="40">
         <v>22</v>
       </c>
     </row>
     <row r="23" ht="19.25">
-      <c r="A23" s="4">
+      <c r="A23" s="36">
         <v>1205777</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="36">
         <v>468.75</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="40">
         <v>12.5</v>
       </c>
     </row>
     <row r="24" ht="19.25">
-      <c r="A24" s="4">
+      <c r="A24" s="36">
         <v>1205777</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="36">
         <v>111</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="40">
         <v>0</v>
       </c>
     </row>
